--- a/artfynd/A 12925-2021.xlsx
+++ b/artfynd/A 12925-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17084136</v>
+        <v>17083781</v>
       </c>
       <c r="B2" t="n">
         <v>85198</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>453287.9491084341</v>
+        <v>453243.825328766</v>
       </c>
       <c r="R2" t="n">
-        <v>7029558.163152675</v>
+        <v>7029518.902140694</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -783,13 +783,17 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>rel. gammal örtrik granskog</t>
+          <t>rel. gammal örtrik granskog, bl.a. blåsippa</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>myrstack</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -811,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17084134</v>
+        <v>17083787</v>
       </c>
       <c r="B3" t="n">
-        <v>85198</v>
+        <v>90319</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -827,26 +831,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3624</v>
+        <v>4769</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -860,10 +864,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>453367.8137273171</v>
+        <v>453191.8760518139</v>
       </c>
       <c r="R3" t="n">
-        <v>7029492.8818428</v>
+        <v>7029435.814129899</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -916,11 +920,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>rel. gammal granskog med rikört</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -941,10 +940,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17084137</v>
+        <v>17083789</v>
       </c>
       <c r="B4" t="n">
-        <v>88886</v>
+        <v>86196</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -953,25 +952,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3286</v>
+        <v>4405</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Diskvaxskivling</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hygrophorus discoideus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Pers.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -990,10 +989,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>453512.8444184146</v>
+        <v>453156.0555701224</v>
       </c>
       <c r="R4" t="n">
-        <v>7029648.149286686</v>
+        <v>7029381.186042609</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1049,7 +1048,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>rel. gammal örtrik granskog i svacka</t>
+          <t>rel. gammal granskog med lågört och tjock kransmossa</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1071,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17084141</v>
+        <v>17083783</v>
       </c>
       <c r="B5" t="n">
-        <v>85198</v>
+        <v>85254</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1087,21 +1086,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3624</v>
+        <v>249228</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1120,10 +1119,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>453377.8322392635</v>
+        <v>453227.1547618291</v>
       </c>
       <c r="R5" t="n">
-        <v>7029625.901063148</v>
+        <v>7029484.1722688</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1179,7 +1178,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>gammal granskog med rikörtsfläckar</t>
+          <t>gammal granskog med rikörter</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1201,7 +1200,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17083781</v>
+        <v>17084136</v>
       </c>
       <c r="B6" t="n">
         <v>85198</v>
@@ -1250,10 +1249,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>453243.825328766</v>
+        <v>453287.9491084341</v>
       </c>
       <c r="R6" t="n">
-        <v>7029518.902140694</v>
+        <v>7029558.163152675</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1304,17 +1303,13 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>rel. gammal örtrik granskog, bl.a. blåsippa</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>myrstack</t>
+          <t>rel. gammal örtrik granskog</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1336,10 +1331,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17083787</v>
+        <v>17084134</v>
       </c>
       <c r="B7" t="n">
-        <v>90319</v>
+        <v>85198</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1352,26 +1347,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4769</v>
+        <v>3624</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1385,10 +1380,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>453191.8760518139</v>
+        <v>453367.8137273171</v>
       </c>
       <c r="R7" t="n">
-        <v>7029435.814129899</v>
+        <v>7029492.8818428</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1441,6 +1436,11 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>rel. gammal granskog med rikört</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1461,10 +1461,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17083789</v>
+        <v>17084137</v>
       </c>
       <c r="B8" t="n">
-        <v>86196</v>
+        <v>88886</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1473,25 +1473,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4405</v>
+        <v>3286</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Diskvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hygrophorus discoideus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Pers.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453156.0555701224</v>
+        <v>453512.8444184146</v>
       </c>
       <c r="R8" t="n">
-        <v>7029381.186042609</v>
+        <v>7029648.149286686</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>rel. gammal granskog med lågört och tjock kransmossa</t>
+          <t>rel. gammal örtrik granskog i svacka</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17083783</v>
+        <v>17084141</v>
       </c>
       <c r="B9" t="n">
-        <v>85254</v>
+        <v>85198</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1607,21 +1607,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>249228</v>
+        <v>3624</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>453227.1547618291</v>
+        <v>453377.8322392635</v>
       </c>
       <c r="R9" t="n">
-        <v>7029484.1722688</v>
+        <v>7029625.901063148</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>gammal granskog med rikörter</t>
+          <t>gammal granskog med rikörtsfläckar</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>

--- a/artfynd/A 12925-2021.xlsx
+++ b/artfynd/A 12925-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17083781</v>
+        <v>17084136</v>
       </c>
       <c r="B2" t="n">
         <v>85198</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>453243.825328766</v>
+        <v>453287.9491084341</v>
       </c>
       <c r="R2" t="n">
-        <v>7029518.902140694</v>
+        <v>7029558.163152675</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -783,17 +783,13 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>rel. gammal örtrik granskog, bl.a. blåsippa</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>myrstack</t>
+          <t>rel. gammal örtrik granskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -815,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17083787</v>
+        <v>17084134</v>
       </c>
       <c r="B3" t="n">
-        <v>90319</v>
+        <v>85198</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -831,26 +827,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4769</v>
+        <v>3624</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -864,10 +860,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>453191.8760518139</v>
+        <v>453367.8137273171</v>
       </c>
       <c r="R3" t="n">
-        <v>7029435.814129899</v>
+        <v>7029492.8818428</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -920,6 +916,11 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>rel. gammal granskog med rikört</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -940,10 +941,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17083789</v>
+        <v>17084137</v>
       </c>
       <c r="B4" t="n">
-        <v>86196</v>
+        <v>88886</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -952,25 +953,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4405</v>
+        <v>3286</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Diskvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hygrophorus discoideus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Pers.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -989,10 +990,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>453156.0555701224</v>
+        <v>453512.8444184146</v>
       </c>
       <c r="R4" t="n">
-        <v>7029381.186042609</v>
+        <v>7029648.149286686</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1048,7 +1049,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>rel. gammal granskog med lågört och tjock kransmossa</t>
+          <t>rel. gammal örtrik granskog i svacka</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1070,10 +1071,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17083783</v>
+        <v>17084141</v>
       </c>
       <c r="B5" t="n">
-        <v>85254</v>
+        <v>85198</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,21 +1087,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>249228</v>
+        <v>3624</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Barrfagerspindling</t>
+          <t>Strimspindling</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cortinarius piceae</t>
+          <t>Cortinarius glaucopus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
+          <t>(Schaeff. : Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1119,10 +1120,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>453227.1547618291</v>
+        <v>453377.8322392635</v>
       </c>
       <c r="R5" t="n">
-        <v>7029484.1722688</v>
+        <v>7029625.901063148</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1178,7 +1179,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>gammal granskog med rikörter</t>
+          <t>gammal granskog med rikörtsfläckar</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1200,7 +1201,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17084136</v>
+        <v>17083781</v>
       </c>
       <c r="B6" t="n">
         <v>85198</v>
@@ -1249,10 +1250,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>453287.9491084341</v>
+        <v>453243.825328766</v>
       </c>
       <c r="R6" t="n">
-        <v>7029558.163152675</v>
+        <v>7029518.902140694</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1303,13 +1304,17 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>rel. gammal örtrik granskog</t>
+          <t>rel. gammal örtrik granskog, bl.a. blåsippa</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>myrstack</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1331,10 +1336,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17084134</v>
+        <v>17083787</v>
       </c>
       <c r="B7" t="n">
-        <v>85198</v>
+        <v>90319</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1347,26 +1352,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3624</v>
+        <v>4769</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1380,10 +1385,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>453367.8137273171</v>
+        <v>453191.8760518139</v>
       </c>
       <c r="R7" t="n">
-        <v>7029492.8818428</v>
+        <v>7029435.814129899</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1436,11 +1441,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>rel. gammal granskog med rikört</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1461,10 +1461,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17084137</v>
+        <v>17083789</v>
       </c>
       <c r="B8" t="n">
-        <v>88886</v>
+        <v>86196</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1473,25 +1473,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3286</v>
+        <v>4405</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Diskvaxskivling</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hygrophorus discoideus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Pers.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1510,10 +1510,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>453512.8444184146</v>
+        <v>453156.0555701224</v>
       </c>
       <c r="R8" t="n">
-        <v>7029648.149286686</v>
+        <v>7029381.186042609</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>rel. gammal örtrik granskog i svacka</t>
+          <t>rel. gammal granskog med lågört och tjock kransmossa</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17084141</v>
+        <v>17083783</v>
       </c>
       <c r="B9" t="n">
-        <v>85198</v>
+        <v>85254</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1607,21 +1607,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3624</v>
+        <v>249228</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Strimspindling</t>
+          <t>Barrfagerspindling</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Cortinarius glaucopus</t>
+          <t>Cortinarius piceae</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schaeff. : Fr.) Fr.</t>
+          <t>Frøslev, T.S.Jeppesen &amp; Brandrud</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>453377.8322392635</v>
+        <v>453227.1547618291</v>
       </c>
       <c r="R9" t="n">
-        <v>7029625.901063148</v>
+        <v>7029484.1722688</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>gammal granskog med rikörtsfläckar</t>
+          <t>gammal granskog med rikörter</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
